--- a/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0220178016708173</v>
+        <v>0.02188251348302137</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03172688275254155</v>
+        <v>0.03131270776057848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03163284298811958</v>
+        <v>0.03254460451324209</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006577779828683423</v>
+        <v>0.006784739742058671</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03783265431207563</v>
+        <v>0.03726258702214339</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02995332166518693</v>
+        <v>0.02822344837359771</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02728391990743602</v>
+        <v>0.02854384474124479</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01127074211062896</v>
+        <v>0.01107542384269431</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03315327017833712</v>
+        <v>0.033402493178503</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03327792233642377</v>
+        <v>0.03390847948913994</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0335182653358299</v>
+        <v>0.03336850907844371</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01125614918520114</v>
+        <v>0.01085557098419749</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05363131712247082</v>
+        <v>0.05168142521558106</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06438828635084293</v>
+        <v>0.06342880649871223</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06806889406283953</v>
+        <v>0.06830036737619871</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03978128507308248</v>
+        <v>0.0383920758334846</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07317738836342474</v>
+        <v>0.07384005827248455</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06023281416539657</v>
+        <v>0.05989377364260377</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05847532288078943</v>
+        <v>0.05703362604134819</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03046006871466084</v>
+        <v>0.03015572456836057</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05645780585953619</v>
+        <v>0.05632218373822463</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05694293593105743</v>
+        <v>0.05644375839886558</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05774755157111824</v>
+        <v>0.05647727222231377</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02907738067538581</v>
+        <v>0.02813431158964569</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.03828005701164067</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02514284759773527</v>
+        <v>0.02514284759773528</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04504153750231648</v>
+        <v>0.04400919895843723</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03371770021002057</v>
+        <v>0.03427720002901868</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02461235564466709</v>
+        <v>0.02542598987719066</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01748502257322739</v>
+        <v>0.01797824388262578</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04969626453664897</v>
+        <v>0.05088068711828259</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04727313808994835</v>
+        <v>0.04685140707396493</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03002439553911761</v>
+        <v>0.02995389115428982</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01645334074633427</v>
+        <v>0.01655732539192707</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05097303174348206</v>
+        <v>0.05124118415812939</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04410208591351</v>
+        <v>0.04391616070052901</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02991360663773988</v>
+        <v>0.02992895934289404</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01938088219474295</v>
+        <v>0.01877162457016122</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07522610082946274</v>
+        <v>0.07683604866213933</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05836824081789652</v>
+        <v>0.06088843179872613</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05040137005059021</v>
+        <v>0.05017216269866719</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03899683740441074</v>
+        <v>0.03957371651939919</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08563597856335624</v>
+        <v>0.08341537008489877</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07744801716834013</v>
+        <v>0.0779865979408772</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05368724365810772</v>
+        <v>0.05573671274593423</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03333178264946703</v>
+        <v>0.03326553617970878</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07453459410842303</v>
+        <v>0.07418979409143658</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06385272798165417</v>
+        <v>0.06384640480330024</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04756631863911447</v>
+        <v>0.04775037689492315</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03315371539597436</v>
+        <v>0.0323076838531776</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.06258235917399035</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04412398597475604</v>
+        <v>0.04412398597475603</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02245328565381228</v>
+        <v>0.02370705342807735</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04387172203162776</v>
+        <v>0.04484214994417372</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04395709035578309</v>
+        <v>0.04246547480897296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02382493137756295</v>
+        <v>0.02249280386247679</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03848585651206107</v>
+        <v>0.03944936966784198</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07151958380157208</v>
+        <v>0.07400589189429768</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04780195457125733</v>
+        <v>0.04826920726120557</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03563094175075286</v>
+        <v>0.03642143126180346</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03536404080406556</v>
+        <v>0.03538502365614291</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.064848576831225</v>
+        <v>0.06156892008693695</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04983493655203778</v>
+        <v>0.04955057102240956</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03449772466300177</v>
+        <v>0.03499209514689887</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05407394467751179</v>
+        <v>0.05421738836464259</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08176943973805244</v>
+        <v>0.08293037009131814</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08229441490198947</v>
+        <v>0.08128406199798467</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05212899142093941</v>
+        <v>0.05075887814135337</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07613628442209473</v>
+        <v>0.07532081019987943</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1155735001072251</v>
+        <v>0.1167673159243294</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08411532012626124</v>
+        <v>0.08466546824275344</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07203305868833816</v>
+        <v>0.07367906114196214</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0597933303261233</v>
+        <v>0.05853168468390876</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0926622104772046</v>
+        <v>0.09116211678543458</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07553074132890961</v>
+        <v>0.07515756182726455</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05668267480641389</v>
+        <v>0.05768279967401018</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03350303387373398</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03035162313119438</v>
+        <v>0.03035162313119439</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06092516713075175</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04278984426802179</v>
+        <v>0.04200669090749391</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02979803061658541</v>
+        <v>0.029074311977448</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02280442098463355</v>
+        <v>0.02374833670691804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02087465698047048</v>
+        <v>0.02094264141858032</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04814444561617352</v>
+        <v>0.04669889654668775</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04047409642868532</v>
+        <v>0.0394423746393404</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02826817491708425</v>
+        <v>0.02909975521064191</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02632445185691402</v>
+        <v>0.02662130968221232</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04835163936628852</v>
+        <v>0.0490663812333514</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03812100098089826</v>
+        <v>0.03847905670550228</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02924654245415135</v>
+        <v>0.02792069597047922</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02599511246865347</v>
+        <v>0.02610047012935912</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07299547632308123</v>
+        <v>0.07254282865807145</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05300081711924751</v>
+        <v>0.05432405430324824</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0456957572325083</v>
+        <v>0.04684081767679927</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04428598820422101</v>
+        <v>0.04553423914741529</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07733515330152446</v>
+        <v>0.07690710783218825</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06747038934125078</v>
+        <v>0.06786181387773695</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05368294158415098</v>
+        <v>0.05373601197454898</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04637526825296891</v>
+        <v>0.04767727816051684</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07075022058987621</v>
+        <v>0.06974462151054167</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05650716235564898</v>
+        <v>0.05737655966132707</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04700915349201746</v>
+        <v>0.04487986751267644</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04187308603174798</v>
+        <v>0.04246107289301417</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.04299949685167812</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02750468997002447</v>
+        <v>0.02750468997002446</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05965660651832618</v>
@@ -1241,7 +1241,7 @@
         <v>0.0442585949944832</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.03012159912093358</v>
+        <v>0.03012159912093359</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04055222725945101</v>
+        <v>0.04151607047531067</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04016744845961875</v>
+        <v>0.04013265442900916</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03694020866890367</v>
+        <v>0.03628535554080529</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02233523904975048</v>
+        <v>0.02183776636509726</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05173895366247423</v>
+        <v>0.05153256432590372</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05302306005495679</v>
+        <v>0.05458954365165943</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.038857200067521</v>
+        <v>0.0392127204652896</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0268343685801086</v>
+        <v>0.02772099117759414</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04826339422890741</v>
+        <v>0.04790087883121463</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05032109394903201</v>
+        <v>0.04957551096586398</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03965567644738178</v>
+        <v>0.03916936580052433</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02620641083927847</v>
+        <v>0.02601844872632015</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05587957405910527</v>
+        <v>0.05637873244903176</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05506976343677429</v>
+        <v>0.05546055452612214</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05098573309205656</v>
+        <v>0.05017824328809463</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03466438735374289</v>
+        <v>0.03442042464479673</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06841080906021105</v>
+        <v>0.06855843117732992</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07017522778640328</v>
+        <v>0.07176294956434134</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0535166411330987</v>
+        <v>0.05325709353075194</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03872562781317904</v>
+        <v>0.03929960356799132</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05987213360179742</v>
+        <v>0.05924802034955488</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06118918531158693</v>
+        <v>0.06039417955419019</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04970562566045438</v>
+        <v>0.0494836400468465</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03474425246465321</v>
+        <v>0.03513277695113132</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15214</v>
+        <v>15120</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22263</v>
+        <v>21972</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21313</v>
+        <v>21927</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4505</v>
+        <v>4647</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26005</v>
+        <v>25613</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>20751</v>
+        <v>19552</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>18335</v>
+        <v>19181</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8217</v>
+        <v>8075</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>45696</v>
+        <v>46040</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>46405</v>
+        <v>47284</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45107</v>
+        <v>44906</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>15915</v>
+        <v>15349</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>37058</v>
+        <v>35710</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45182</v>
+        <v>44508</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45862</v>
+        <v>46018</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27245</v>
+        <v>26293</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>50299</v>
+        <v>50754</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>41727</v>
+        <v>41492</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>39295</v>
+        <v>38326</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22207</v>
+        <v>21985</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>77817</v>
+        <v>77630</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>79405</v>
+        <v>78709</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>77714</v>
+        <v>76004</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>41113</v>
+        <v>39780</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>43147</v>
+        <v>42158</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>34216</v>
+        <v>34784</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25051</v>
+        <v>25879</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>18171</v>
+        <v>18684</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>48016</v>
+        <v>49161</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>48745</v>
+        <v>48310</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>31185</v>
+        <v>31112</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>17410</v>
+        <v>17521</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>98079</v>
+        <v>98595</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>90229</v>
+        <v>89849</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>61517</v>
+        <v>61548</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>40650</v>
+        <v>39372</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>72062</v>
+        <v>73605</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>59231</v>
+        <v>61789</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>51299</v>
+        <v>51066</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>40527</v>
+        <v>41126</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>82741</v>
+        <v>80596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>79859</v>
+        <v>80415</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>55763</v>
+        <v>57892</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>35271</v>
+        <v>35201</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>143415</v>
+        <v>142751</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>130638</v>
+        <v>130625</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>97819</v>
+        <v>98198</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>69537</v>
+        <v>67762</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15213</v>
+        <v>16062</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>33032</v>
+        <v>33763</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>33170</v>
+        <v>32045</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19032</v>
+        <v>17968</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>26287</v>
+        <v>26946</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>55291</v>
+        <v>57214</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37325</v>
+        <v>37690</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>28637</v>
+        <v>29272</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>48115</v>
+        <v>48144</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>98960</v>
+        <v>93955</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>76518</v>
+        <v>76081</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>55284</v>
+        <v>56076</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36636</v>
+        <v>36734</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>61566</v>
+        <v>62440</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>62100</v>
+        <v>61338</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>41643</v>
+        <v>40548</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>52004</v>
+        <v>51447</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>89349</v>
+        <v>90272</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>65679</v>
+        <v>66109</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57894</v>
+        <v>59217</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>81353</v>
+        <v>79636</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>141404</v>
+        <v>139115</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>115972</v>
+        <v>115399</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>90837</v>
+        <v>92439</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40209</v>
+        <v>39473</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28150</v>
+        <v>27467</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21181</v>
+        <v>22058</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>20470</v>
+        <v>20537</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>49766</v>
+        <v>48272</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>42364</v>
+        <v>41284</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>29250</v>
+        <v>30110</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>29188</v>
+        <v>29518</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>95416</v>
+        <v>96826</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>75914</v>
+        <v>76627</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>57427</v>
+        <v>54824</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>54315</v>
+        <v>54535</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>68593</v>
+        <v>68167</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>50070</v>
+        <v>51320</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42444</v>
+        <v>43507</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>43429</v>
+        <v>44653</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>79941</v>
+        <v>79498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>70620</v>
+        <v>71030</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>55547</v>
+        <v>55602</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>51421</v>
+        <v>52864</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>139617</v>
+        <v>137632</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>112528</v>
+        <v>114259</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>92305</v>
+        <v>88124</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>87491</v>
+        <v>88720</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>132449</v>
+        <v>135597</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>137136</v>
+        <v>137018</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>124673</v>
+        <v>122463</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>78253</v>
+        <v>76510</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>174375</v>
+        <v>173679</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>187897</v>
+        <v>193448</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>137019</v>
+        <v>138272</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>99280</v>
+        <v>102561</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>320295</v>
+        <v>317890</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>350124</v>
+        <v>344937</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>273672</v>
+        <v>270316</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>188773</v>
+        <v>187419</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>182510</v>
+        <v>184140</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>188015</v>
+        <v>189349</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>172077</v>
+        <v>169352</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>121449</v>
+        <v>120594</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>230564</v>
+        <v>231061</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>248679</v>
+        <v>254305</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>188711</v>
+        <v>187796</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>143275</v>
+        <v>145399</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>397336</v>
+        <v>393194</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>425742</v>
+        <v>420211</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>343029</v>
+        <v>341497</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>250274</v>
+        <v>253072</v>
       </c>
     </row>
     <row r="24">
